--- a/public/files/users-templateMain.xlsx
+++ b/public/files/users-templateMain.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>student</t>
   </si>
@@ -134,6 +134,22 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> *</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">grade_level </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
     </r>
   </si>
 </sst>
@@ -223,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,10 +247,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,10 +545,11 @@
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -546,48 +564,60 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>123456</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F2" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>123457</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>"student,teacher"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
       <formula1>"student,teacher,librarian"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+      <formula1>"7,8,9,10,11,12,0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
